--- a/application/uploads/cache/xlsx/measurementsample-AVR-CF00001.xlsx
+++ b/application/uploads/cache/xlsx/measurementsample-AVR-CF00001.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Staff Code</t>
   </si>
@@ -33,51 +33,6 @@
   </si>
   <si>
     <t>UOM</t>
-  </si>
-  <si>
-    <t>AVR-CF00001-1</t>
-  </si>
-  <si>
-    <t>Charbel</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>CHST&gt;Chest</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>UWST&gt;Upper Waist</t>
-  </si>
-  <si>
-    <t>LWST&gt;Waist</t>
-  </si>
-  <si>
-    <t>HIPS&gt;Hips</t>
-  </si>
-  <si>
-    <t>NECK&gt;Neck</t>
-  </si>
-  <si>
-    <t>TRSL&gt;Trouser Length</t>
-  </si>
-  <si>
-    <t>HEI&gt;Height</t>
-  </si>
-  <si>
-    <t>WEI&gt;Weight</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>AVR-CF00001-2</t>
-  </si>
-  <si>
-    <t>Elie</t>
   </si>
 </sst>
 </file>
@@ -427,7 +382,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E2" sqref="E2"/>
@@ -463,294 +418,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xIkQVCR7WJhT7CmMM4JevoO7JrGT5nTGjR03AdFUT2cgwG3aOQlyQHtSKmgh6C1NDOzmAaX/LPKhBSkFGrPNtA==" saltValue="ZHEBmYX3yVU5EPH1nG9srA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
